--- a/IPOs.xlsx
+++ b/IPOs.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek\Documents\Repos\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek\Documents\Repos\IPO_Anaysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69D404-E492-476D-B88A-358546604463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D767CB9-3B96-4B1C-A24C-32C2E3292C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A44CEA2-4892-4B2F-BEAD-5865D9D0BCAC}"/>
+    <workbookView xWindow="-19380" yWindow="1815" windowWidth="26490" windowHeight="11580" xr2:uid="{5A44CEA2-4892-4B2F-BEAD-5865D9D0BCAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1787,10 +1787,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1F418-A8E0-495F-B6BD-87C69ED276F3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>141</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>143</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>145</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>149</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>159</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>163</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>165</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>167</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>175</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>185</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>215</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>223</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>241</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>255</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>269</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>277</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>281</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>287</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>293</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>330</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>336</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>352</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>362</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>403</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>405</v>
       </c>
@@ -9196,14 +9196,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="C1:C203" xr:uid="{613A957D-91C7-4F8E-A41D-DC7164D5F999}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:K200" xr:uid="{3006FBCA-CBB4-4D64-BE7A-2A7E2B5D2904}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Technology"/>
+        <filter val="ACCD"/>
+        <filter val="BQ"/>
+        <filter val="DNK"/>
+        <filter val="XPEV"/>
+        <filter val="YQ"/>
       </filters>
     </filterColumn>
   </autoFilter>
